--- a/H2495_FRA/H2495_i.xlsx
+++ b/H2495_FRA/H2495_i.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lloydsregistergroup-my.sharepoint.com/personal/sung-hoon_kim_lr_org/Documents/Desktop/H2495_FRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DFD618-5A55-4D78-9BB7-01BA23EA91E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1DA1D7-758D-49CF-A812-71AC0AC3FA52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735"/>
+    <workbookView xWindow="8445" yWindow="4665" windowWidth="21600" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -1654,7 +1654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16552" uniqueCount="2164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16564" uniqueCount="2166">
   <si>
     <t>Phast</t>
   </si>
@@ -8079,6 +8079,9 @@
     <t>S9</t>
   </si>
   <si>
+    <t>EOBO</t>
+  </si>
+  <si>
     <t>SM</t>
   </si>
   <si>
@@ -8089,6 +8092,9 @@
   </si>
   <si>
     <t>LA</t>
+  </si>
+  <si>
+    <t>EOBN</t>
   </si>
   <si>
     <t>0.1F</t>
@@ -14975,8 +14981,11 @@
       <c r="H63" s="6" t="s">
         <v>2137</v>
       </c>
+      <c r="I63" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T63" s="6" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="U63" s="7">
         <v>5.7</v>
@@ -15004,8 +15013,11 @@
       <c r="H64" s="6" t="s">
         <v>2137</v>
       </c>
+      <c r="I64" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T64" s="6" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="U64" s="7">
         <v>10.399999999999999</v>
@@ -15027,8 +15039,11 @@
       <c r="H65" s="6" t="s">
         <v>2137</v>
       </c>
+      <c r="I65" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T65" s="6" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="U65" s="7">
         <v>19.900000000000002</v>
@@ -15056,8 +15071,11 @@
       <c r="H66" s="6" t="s">
         <v>2137</v>
       </c>
+      <c r="I66" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T66" s="6" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="U66" s="7">
         <v>25</v>
@@ -15085,8 +15103,11 @@
       <c r="H67" s="6" t="s">
         <v>2139</v>
       </c>
+      <c r="I67" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T67" s="6" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="U67" s="7">
         <v>5.7</v>
@@ -15114,8 +15135,11 @@
       <c r="H68" s="6" t="s">
         <v>2139</v>
       </c>
+      <c r="I68" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T68" s="6" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="U68" s="7">
         <v>10.399999999999999</v>
@@ -15137,8 +15161,11 @@
       <c r="H69" s="6" t="s">
         <v>2139</v>
       </c>
+      <c r="I69" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T69" s="6" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="U69" s="7">
         <v>19.900000000000002</v>
@@ -15166,8 +15193,11 @@
       <c r="H70" s="6" t="s">
         <v>2139</v>
       </c>
+      <c r="I70" s="6" t="s">
+        <v>2141</v>
+      </c>
       <c r="T70" s="6" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="U70" s="7">
         <v>25</v>
@@ -15195,8 +15225,11 @@
       <c r="H71" s="6" t="s">
         <v>2140</v>
       </c>
+      <c r="I71" s="6" t="s">
+        <v>2146</v>
+      </c>
       <c r="T71" s="6" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="U71" s="7">
         <v>5.7</v>
@@ -15230,8 +15263,11 @@
       <c r="H72" s="6" t="s">
         <v>2140</v>
       </c>
+      <c r="I72" s="6" t="s">
+        <v>2146</v>
+      </c>
       <c r="T72" s="6" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="U72" s="7">
         <v>10.399999999999999</v>
@@ -15256,8 +15292,11 @@
       <c r="H73" s="6" t="s">
         <v>2140</v>
       </c>
+      <c r="I73" s="6" t="s">
+        <v>2146</v>
+      </c>
       <c r="T73" s="6" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="U73" s="7">
         <v>19.900000000000002</v>
@@ -15288,8 +15327,11 @@
       <c r="H74" s="6" t="s">
         <v>2140</v>
       </c>
+      <c r="I74" s="6" t="s">
+        <v>2146</v>
+      </c>
       <c r="T74" s="6" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="U74" s="7">
         <v>25</v>
@@ -42320,7 +42362,7 @@
         <v>1049</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D63" s="7">
         <v>1.5</v>
@@ -43647,7 +43689,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>1113</v>
@@ -45355,7 +45397,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
     </row>
   </sheetData>
@@ -46531,7 +46573,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
   </sheetData>
@@ -50535,7 +50577,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
     </row>
   </sheetData>
@@ -51115,7 +51157,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
   </sheetData>
@@ -51477,7 +51519,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
@@ -51893,7 +51935,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
     </row>
   </sheetData>
@@ -52524,7 +52566,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
     </row>
   </sheetData>
@@ -53495,7 +53537,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -54126,7 +54168,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
     </row>
   </sheetData>
@@ -54739,7 +54781,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
     </row>
   </sheetData>
@@ -55224,7 +55266,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
     </row>
   </sheetData>
@@ -55489,7 +55531,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="E63" s="8">
         <v>1</v>
@@ -56257,7 +56299,7 @@
         <v>1108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
   </sheetData>
@@ -56558,10 +56600,10 @@
         <v>1808</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -56578,7 +56620,7 @@
         <v>2138</v>
       </c>
       <c r="F64" s="44" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
     </row>
   </sheetData>
@@ -59338,7 +59380,7 @@
         <v>2013</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
     </row>
   </sheetData>
@@ -59604,7 +59646,7 @@
         <v>2016</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
     </row>
   </sheetData>
@@ -76032,7 +76074,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76446B3B-BE7A-4C14-9C7B-6B04C890A706}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52630E9D-556B-43EE-9BB6-DA631F00E5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -76051,7 +76093,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E0EA9AC-DB0B-48EF-AAB9-AE6513B813B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A889C857-8D5C-4606-90AE-D838C41A23BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -76059,8 +76101,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15609E8D-AAFE-4A26-84FB-8C0B0FBBA7D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A12205E8-6181-4A77-826E-6D0E962F814E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4428c669-214a-4c61-aa23-7e9fce8c48fb"/>
@@ -76068,7 +76111,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bac9971b-ad86-4e1b-b0ed-644a7169aa2e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
